--- a/data/pca/factorExposure/factorExposure_2012-09-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002287778602770128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001919142488347733</v>
+      </c>
+      <c r="C2">
+        <v>0.0283418365711032</v>
+      </c>
+      <c r="D2">
+        <v>0.005125669297738084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-9.418975600810485e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006821104962211219</v>
+      </c>
+      <c r="C4">
+        <v>0.08274834597425627</v>
+      </c>
+      <c r="D4">
+        <v>0.06931872612166345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005269215804385779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01477829796227017</v>
+      </c>
+      <c r="C6">
+        <v>0.1172667501823706</v>
+      </c>
+      <c r="D6">
+        <v>0.02053068945601756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0008733913362867013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00503265112952433</v>
+      </c>
+      <c r="C7">
+        <v>0.05887913973754098</v>
+      </c>
+      <c r="D7">
+        <v>0.03384519961772366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001734535746366637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006122753819884793</v>
+      </c>
+      <c r="C8">
+        <v>0.03534275462336545</v>
+      </c>
+      <c r="D8">
+        <v>0.04153831948580866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001053307555396505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005365148362670634</v>
+      </c>
+      <c r="C9">
+        <v>0.07078622325396172</v>
+      </c>
+      <c r="D9">
+        <v>0.07534718345990679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002538220614374039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004245579789763551</v>
+      </c>
+      <c r="C10">
+        <v>0.0525412518869153</v>
+      </c>
+      <c r="D10">
+        <v>-0.1863807301369304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001649053032456942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005735448239028784</v>
+      </c>
+      <c r="C11">
+        <v>0.07931091227538839</v>
+      </c>
+      <c r="D11">
+        <v>0.06605180060657175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007895378483358338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004525783454175137</v>
+      </c>
+      <c r="C12">
+        <v>0.06498799809944152</v>
+      </c>
+      <c r="D12">
+        <v>0.05102358503198808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001862585416341942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008669503857860828</v>
+      </c>
+      <c r="C13">
+        <v>0.06973493808884339</v>
+      </c>
+      <c r="D13">
+        <v>0.05899203141952863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00186785749344592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008590651814856454</v>
+      </c>
+      <c r="C14">
+        <v>0.04257592494513424</v>
+      </c>
+      <c r="D14">
+        <v>0.01231040239342747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001356606906165094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00599353833631391</v>
+      </c>
+      <c r="C15">
+        <v>0.03972520974609705</v>
+      </c>
+      <c r="D15">
+        <v>0.03034767093926547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0002010037734525195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005147869461765322</v>
+      </c>
+      <c r="C16">
+        <v>0.06407904239299378</v>
+      </c>
+      <c r="D16">
+        <v>0.05747959647774643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002366124795756055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008813119701366284</v>
+      </c>
+      <c r="C20">
+        <v>0.06311872435207461</v>
+      </c>
+      <c r="D20">
+        <v>0.05304984886182249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00538992782271755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009304089032346629</v>
+      </c>
+      <c r="C21">
+        <v>0.01967663278238584</v>
+      </c>
+      <c r="D21">
+        <v>0.04125035282734828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01912724138505329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006698820970752929</v>
+      </c>
+      <c r="C22">
+        <v>0.08712764629215985</v>
+      </c>
+      <c r="D22">
+        <v>0.1245169780368593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01878630578286948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006393082366700587</v>
+      </c>
+      <c r="C23">
+        <v>0.08750487040970828</v>
+      </c>
+      <c r="D23">
+        <v>0.1256458530208031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001926631317968118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005654077773247682</v>
+      </c>
+      <c r="C24">
+        <v>0.0762358838635744</v>
+      </c>
+      <c r="D24">
+        <v>0.06816657865630553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003305924620095084</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003253212403061772</v>
+      </c>
+      <c r="C25">
+        <v>0.07780783873060249</v>
+      </c>
+      <c r="D25">
+        <v>0.06732999647591452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00189616780439846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003565670562090342</v>
+      </c>
+      <c r="C26">
+        <v>0.03842605882316628</v>
+      </c>
+      <c r="D26">
+        <v>0.02450944404570723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006216659483916879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001691773720161537</v>
+      </c>
+      <c r="C28">
+        <v>0.1045363611530546</v>
+      </c>
+      <c r="D28">
+        <v>-0.3250112646086787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001323991757854769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002744006006360416</v>
+      </c>
+      <c r="C29">
+        <v>0.04756322169864841</v>
+      </c>
+      <c r="D29">
+        <v>0.01173583092711501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002881035854934851</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009413597488938748</v>
+      </c>
+      <c r="C30">
+        <v>0.1412977407504173</v>
+      </c>
+      <c r="D30">
+        <v>0.1120711731055713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001942575679524959</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006350365898159846</v>
+      </c>
+      <c r="C31">
+        <v>0.0431925838286288</v>
+      </c>
+      <c r="D31">
+        <v>0.03287886783796266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001988247388353486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003741659751780586</v>
+      </c>
+      <c r="C32">
+        <v>0.04009545326984175</v>
+      </c>
+      <c r="D32">
+        <v>0.02071385039912569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>4.038401007388815e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009039513858943301</v>
+      </c>
+      <c r="C33">
+        <v>0.08890718651192664</v>
+      </c>
+      <c r="D33">
+        <v>0.06518406140586748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001753188853000874</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004284819690258419</v>
+      </c>
+      <c r="C34">
+        <v>0.05755067025375474</v>
+      </c>
+      <c r="D34">
+        <v>0.05895026955452975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001777930281963788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005251559851193445</v>
+      </c>
+      <c r="C35">
+        <v>0.04065326063643882</v>
+      </c>
+      <c r="D35">
+        <v>0.01898230603843992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004850540336952094</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00141643573465808</v>
+      </c>
+      <c r="C36">
+        <v>0.02461500136269426</v>
+      </c>
+      <c r="D36">
+        <v>0.02569792461881358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003038282574151052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009235777415266775</v>
+      </c>
+      <c r="C38">
+        <v>0.04071171945417976</v>
+      </c>
+      <c r="D38">
+        <v>0.01065643431144958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01127135684934126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001689296559938718</v>
+      </c>
+      <c r="C39">
+        <v>0.1106043357166231</v>
+      </c>
+      <c r="D39">
+        <v>0.08046034233314688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003082169913653707</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003626228546181485</v>
+      </c>
+      <c r="C40">
+        <v>0.09052962576162905</v>
+      </c>
+      <c r="D40">
+        <v>0.0167099671747145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001761149761935927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007195468608273276</v>
+      </c>
+      <c r="C41">
+        <v>0.03979580408009257</v>
+      </c>
+      <c r="D41">
+        <v>0.04001069479469819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001876543345745007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00367585136972629</v>
+      </c>
+      <c r="C43">
+        <v>0.05328590387212795</v>
+      </c>
+      <c r="D43">
+        <v>0.0283174094226073</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006486208693301332</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002626238811677282</v>
+      </c>
+      <c r="C44">
+        <v>0.1030454847838437</v>
+      </c>
+      <c r="D44">
+        <v>0.06876975045297848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001361246117624436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001614465743862042</v>
+      </c>
+      <c r="C46">
+        <v>0.03258670793321086</v>
+      </c>
+      <c r="D46">
+        <v>0.03507059797474853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007890460222674736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002292084972082175</v>
+      </c>
+      <c r="C47">
+        <v>0.03498847859174669</v>
+      </c>
+      <c r="D47">
+        <v>0.02385153028414906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003674147821252747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007007332292683018</v>
+      </c>
+      <c r="C48">
+        <v>0.03157572485009993</v>
+      </c>
+      <c r="D48">
+        <v>0.03461094738697311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003602706963104442</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01690218634436032</v>
+      </c>
+      <c r="C49">
+        <v>0.1878262727799016</v>
+      </c>
+      <c r="D49">
+        <v>0.00652315697760518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0008568963287269037</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00380322534650134</v>
+      </c>
+      <c r="C50">
+        <v>0.04277736499940754</v>
+      </c>
+      <c r="D50">
+        <v>0.04005289020899028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003543386166860355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004226271244443139</v>
+      </c>
+      <c r="C51">
+        <v>0.02583489340498685</v>
+      </c>
+      <c r="D51">
+        <v>0.02328879829773494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007782156838921171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02165092691047192</v>
+      </c>
+      <c r="C53">
+        <v>0.1716465324787687</v>
+      </c>
+      <c r="D53">
+        <v>0.02124232736323513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004500497468985011</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009534327037445212</v>
+      </c>
+      <c r="C54">
+        <v>0.05594279481780642</v>
+      </c>
+      <c r="D54">
+        <v>0.04190768729811636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001021748708290854</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009840017815844444</v>
+      </c>
+      <c r="C55">
+        <v>0.1080939025587038</v>
+      </c>
+      <c r="D55">
+        <v>0.0373577971893882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007672745189088581</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02055543369152106</v>
+      </c>
+      <c r="C56">
+        <v>0.174777673004098</v>
+      </c>
+      <c r="D56">
+        <v>0.015040061218434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003556537214355053</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01924596259272599</v>
+      </c>
+      <c r="C58">
+        <v>0.1051327535313396</v>
+      </c>
+      <c r="D58">
+        <v>0.06801969006729763</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00172286006741942</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009947846991974527</v>
+      </c>
+      <c r="C59">
+        <v>0.1685301340365447</v>
+      </c>
+      <c r="D59">
+        <v>-0.3426657524801999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005968373586364183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02459165814189755</v>
+      </c>
+      <c r="C60">
+        <v>0.226131818002156</v>
+      </c>
+      <c r="D60">
+        <v>0.01769635854035497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01045278486821723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001854600588714576</v>
+      </c>
+      <c r="C61">
+        <v>0.09338378029752332</v>
+      </c>
+      <c r="D61">
+        <v>0.05857053237786761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1476800864398802</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1503921761053848</v>
+      </c>
+      <c r="C62">
+        <v>0.09964212511535807</v>
+      </c>
+      <c r="D62">
+        <v>0.01769779357795974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001237107582096684</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006691589256619285</v>
+      </c>
+      <c r="C63">
+        <v>0.05317523176673579</v>
+      </c>
+      <c r="D63">
+        <v>0.03447254296124075</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.008632454967723554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01643365014498738</v>
+      </c>
+      <c r="C64">
+        <v>0.1049569795337399</v>
+      </c>
+      <c r="D64">
+        <v>0.05680676324287921</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007838268368663682</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01759206184510812</v>
+      </c>
+      <c r="C65">
+        <v>0.120911199365083</v>
+      </c>
+      <c r="D65">
+        <v>0.0301803666389634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001953883105077833</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01296283553116497</v>
+      </c>
+      <c r="C66">
+        <v>0.1582509783906432</v>
+      </c>
+      <c r="D66">
+        <v>0.1126467436516053</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006191446469577636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01561622399978889</v>
+      </c>
+      <c r="C67">
+        <v>0.07307019799015926</v>
+      </c>
+      <c r="D67">
+        <v>0.02094969231836353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.003933956428606949</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0007660926562684491</v>
+      </c>
+      <c r="C68">
+        <v>0.08653780586788488</v>
+      </c>
+      <c r="D68">
+        <v>-0.2574956415429136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0001672096352199318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006488435392800461</v>
+      </c>
+      <c r="C69">
+        <v>0.05254818952921201</v>
+      </c>
+      <c r="D69">
+        <v>0.03854900742210567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001243679471758544</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002429624571074341</v>
+      </c>
+      <c r="C70">
+        <v>0.00784688506050619</v>
+      </c>
+      <c r="D70">
+        <v>-0.0006469529643903352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.000767440443466366</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005459609632355155</v>
+      </c>
+      <c r="C71">
+        <v>0.09055834238480162</v>
+      </c>
+      <c r="D71">
+        <v>-0.3015521520825874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003284800913002757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01718430065460558</v>
+      </c>
+      <c r="C72">
+        <v>0.1576141468359435</v>
+      </c>
+      <c r="D72">
+        <v>0.008622965032906323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.008795540998741538</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03111138194223607</v>
+      </c>
+      <c r="C73">
+        <v>0.2819620398028108</v>
+      </c>
+      <c r="D73">
+        <v>0.05059973026688324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005689557611283605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001957651855084011</v>
+      </c>
+      <c r="C74">
+        <v>0.101963869273577</v>
+      </c>
+      <c r="D74">
+        <v>0.03491291244979174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001290255315585885</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01098450006354492</v>
+      </c>
+      <c r="C75">
+        <v>0.121126406181608</v>
+      </c>
+      <c r="D75">
+        <v>0.02886448542364647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01082065403524237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02246732144611313</v>
+      </c>
+      <c r="C76">
+        <v>0.1463164984659335</v>
+      </c>
+      <c r="D76">
+        <v>0.05901860703258753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.004785429321970599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02062031842845602</v>
+      </c>
+      <c r="C77">
+        <v>0.1136141440532413</v>
+      </c>
+      <c r="D77">
+        <v>0.05717996450337887</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005911656386634574</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01460414894049036</v>
+      </c>
+      <c r="C78">
+        <v>0.09794775807816791</v>
+      </c>
+      <c r="D78">
+        <v>0.08003906229332508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02602450564783065</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03858390477868597</v>
+      </c>
+      <c r="C79">
+        <v>0.1558336656812575</v>
+      </c>
+      <c r="D79">
+        <v>0.0338194002572376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006364274008126245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009581029181974258</v>
+      </c>
+      <c r="C80">
+        <v>0.03970764399547965</v>
+      </c>
+      <c r="D80">
+        <v>0.03094139567744246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004521782965550181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01584925668983449</v>
+      </c>
+      <c r="C81">
+        <v>0.129234501358549</v>
+      </c>
+      <c r="D81">
+        <v>0.040117548767366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00701059921086352</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.019472858232407</v>
+      </c>
+      <c r="C82">
+        <v>0.1374250570916159</v>
+      </c>
+      <c r="D82">
+        <v>0.04029182703853437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00380510669264167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0120618301051443</v>
+      </c>
+      <c r="C83">
+        <v>0.06353399671328169</v>
+      </c>
+      <c r="D83">
+        <v>0.0463814531270777</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01054576093702623</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01221699877656663</v>
+      </c>
+      <c r="C84">
+        <v>0.03758143512552593</v>
+      </c>
+      <c r="D84">
+        <v>-0.006892217593010281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01786866613367816</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02901934670395456</v>
+      </c>
+      <c r="C85">
+        <v>0.1233204363939989</v>
+      </c>
+      <c r="D85">
+        <v>0.04098182730682299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002839099160020962</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003731506718784542</v>
+      </c>
+      <c r="C86">
+        <v>0.04952912992927334</v>
+      </c>
+      <c r="D86">
+        <v>0.0290029478501797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0005809607370301411</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01081569939889658</v>
+      </c>
+      <c r="C87">
+        <v>0.1267925829416862</v>
+      </c>
+      <c r="D87">
+        <v>0.07732174733378974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009315654235598575</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003006597139670617</v>
+      </c>
+      <c r="C88">
+        <v>0.06229199511389687</v>
+      </c>
+      <c r="D88">
+        <v>0.03112855486150383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01057811923221147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002508448576938275</v>
+      </c>
+      <c r="C89">
+        <v>0.1367994310848444</v>
+      </c>
+      <c r="D89">
+        <v>-0.3128553881223366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001643601278112316</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006245333446112156</v>
+      </c>
+      <c r="C90">
+        <v>0.1195357879568105</v>
+      </c>
+      <c r="D90">
+        <v>-0.3125732802176964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002055099846407298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01118024296645416</v>
+      </c>
+      <c r="C91">
+        <v>0.09937078994227951</v>
+      </c>
+      <c r="D91">
+        <v>0.02865664465031489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005225896785571133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003175320051941195</v>
+      </c>
+      <c r="C92">
+        <v>0.1333138910183068</v>
+      </c>
+      <c r="D92">
+        <v>-0.3262253612536825</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001201179025716631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00393128418941077</v>
+      </c>
+      <c r="C93">
+        <v>0.1051860964470065</v>
+      </c>
+      <c r="D93">
+        <v>-0.2992435088172419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01002832229361058</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02220050727701028</v>
+      </c>
+      <c r="C94">
+        <v>0.1417622000596711</v>
+      </c>
+      <c r="D94">
+        <v>0.0550155253093468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006612527133513499</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01652694028749498</v>
+      </c>
+      <c r="C95">
+        <v>0.1207398571427351</v>
+      </c>
+      <c r="D95">
+        <v>0.06754372685029765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01623442287715842</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03670752622185013</v>
+      </c>
+      <c r="C97">
+        <v>0.22702330475215</v>
+      </c>
+      <c r="D97">
+        <v>0.001166057088766147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01129555459348098</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03849446879242137</v>
+      </c>
+      <c r="C98">
+        <v>0.2608665711806505</v>
+      </c>
+      <c r="D98">
+        <v>0.02546927324908415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9870400792321284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9811201825617546</v>
+      </c>
+      <c r="C99">
+        <v>-0.1202960353245502</v>
+      </c>
+      <c r="D99">
+        <v>-0.02380652671626846</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001248489061517793</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002783858815158822</v>
+      </c>
+      <c r="C101">
+        <v>0.04768440122746182</v>
+      </c>
+      <c r="D101">
+        <v>0.01208231756125868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
